--- a/src/main/resources/Reconcile.xlsx
+++ b/src/main/resources/Reconcile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="7125"/>
+    <workbookView xWindow="4050" yWindow="105" windowWidth="14805" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="对账" sheetId="5" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -522,65 +522,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.5"/>
@@ -915,26 +918,26 @@
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -946,10 +949,10 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -977,10 +980,10 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1"/>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
@@ -992,10 +995,10 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1010,8 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
@@ -1020,10 +1023,10 @@
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1036,10 +1039,10 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1052,10 +1055,10 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1068,10 +1071,10 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="F13" s="18"/>
@@ -1083,10 +1086,10 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="F14" s="18"/>
@@ -1098,10 +1101,10 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="18"/>
@@ -1113,26 +1116,26 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="F17" s="28"/>
@@ -1144,10 +1147,10 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="F18" s="18"/>
@@ -1173,44 +1176,44 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="15">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="10">
@@ -1221,8 +1224,8 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -1239,24 +1242,24 @@
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A25" s="7"/>
@@ -1271,11 +1274,11 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="48">
+      <c r="K25" s="42">
         <f>SUM(K22:K24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A26" s="9"/>
@@ -1318,166 +1321,166 @@
     <row r="33" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35" t="s">
+      <c r="J34" s="57"/>
+      <c r="K34" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="35"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:17" ht="32.25" customHeight="1">
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="1:17" ht="21" customHeight="1">
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36" t="s">
+      <c r="J36" s="55"/>
+      <c r="K36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="36"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:17" ht="36" customHeight="1"/>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1"/>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="38" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="55" t="s">
+      <c r="H41" s="52"/>
+      <c r="I41" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="4"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="31"/>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="31"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="31"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="31"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
@@ -1504,44 +1507,44 @@
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1"/>
     <row r="52" spans="1:12" s="1" customFormat="1" ht="15">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43" t="s">
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
+      <c r="J52" s="37"/>
+      <c r="K52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="43"/>
+      <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="10">
@@ -1552,8 +1555,8 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
@@ -1570,28 +1573,28 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A56" s="8"/>
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A57" s="7"/>
@@ -1606,11 +1609,11 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="48">
+      <c r="K57" s="42">
         <f>SUM(K54:K56)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="48"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="9"/>
@@ -1632,29 +1635,29 @@
     <row r="62" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1"/>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="29"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="29"/>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="2"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="2:11" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="B65" s="29"/>
@@ -1672,58 +1675,45 @@
       <c r="I66" s="15"/>
     </row>
     <row r="67" spans="2:11" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67"/>
-      <c r="H67" s="46" t="s">
+      <c r="H67" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="2:11" s="1" customFormat="1" ht="14.25"/>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="H63:K64"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="I43:L46"/>
-    <mergeCell ref="C43:F46"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="76">
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="K52:L52"/>
@@ -1740,30 +1730,44 @@
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="B52:D53"/>
     <mergeCell ref="B63:E64"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="H63:K64"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="I43:L46"/>
+    <mergeCell ref="C43:F46"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="G52:H53"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
